--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Tbot-Agent\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Downloads\thingo-T-BOT\Tbot-Agent\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42021E73-0930-403C-B834-5095AE27E6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F93D50A-6CDC-4264-8629-AC79267C2F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="价格" sheetId="1" r:id="rId1"/>
+    <sheet name="价格副本" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>手机</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,51 @@
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>华为</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>vivo</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>三星</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
 </sst>
 </file>
@@ -99,8 +144,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -380,16 +426,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7042DA9-051A-47B6-B2C3-00A0456340C5}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -417,7 +464,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -431,37 +478,93 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>40</v>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Downloads\thingo-T-BOT\Tbot-Agent\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F93D50A-6CDC-4264-8629-AC79267C2F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4C42C3-3D44-4C60-BC4C-1205A0586079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="价格副本" sheetId="6" r:id="rId1"/>
+    <sheet name="价格副本" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -426,12 +426,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7042DA9-051A-47B6-B2C3-00A0456340C5}">
-  <sheetPr codeName="Sheet4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901E9AA5-D91E-4649-9E5F-92B80D53DC55}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -565,6 +565,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>